--- a/Excel-XLSX/UN-GNB.xlsx
+++ b/Excel-XLSX/UN-GNB.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>YjmC5M</t>
+    <t>st9j2R</t>
   </si>
   <si>
     <t>2001</t>
@@ -1692,8 +1692,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1760,8 +1760,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1828,8 +1828,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1896,8 +1896,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1964,8 +1964,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -2032,8 +2032,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -2100,8 +2100,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -2168,8 +2168,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -2236,8 +2236,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -2304,8 +2304,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -2372,8 +2372,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -2440,8 +2440,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2508,8 +2508,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -2576,8 +2576,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2644,8 +2644,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2712,8 +2712,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2780,8 +2780,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2848,8 +2848,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2916,8 +2916,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2984,8 +2984,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -3052,8 +3052,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -3120,8 +3120,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -3188,8 +3188,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -3256,8 +3256,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -3324,8 +3324,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -3392,8 +3392,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -3460,8 +3460,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -3528,8 +3528,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -3596,8 +3596,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -3664,8 +3664,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -3732,8 +3732,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -3800,8 +3800,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3868,8 +3868,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3936,8 +3936,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -4004,8 +4004,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -4072,8 +4072,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -4140,8 +4140,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -4208,8 +4208,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -4276,8 +4276,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -4344,8 +4344,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -4412,8 +4412,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -4480,8 +4480,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -4548,8 +4548,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -4616,8 +4616,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -4684,8 +4684,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -4752,8 +4752,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
@@ -4820,8 +4820,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -4888,8 +4888,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -4956,8 +4956,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -5024,8 +5024,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -5092,8 +5092,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -5160,8 +5160,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -5228,8 +5228,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -5296,8 +5296,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -5364,8 +5364,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -5432,8 +5432,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -5500,8 +5500,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -5568,8 +5568,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -5636,8 +5636,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -5704,8 +5704,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -5772,8 +5772,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -5840,8 +5840,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -5908,8 +5908,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -5976,8 +5976,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -6044,8 +6044,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -6112,8 +6112,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -6180,8 +6180,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -6248,8 +6248,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -6316,8 +6316,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -6384,8 +6384,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -6452,8 +6452,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -6520,8 +6520,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -6588,8 +6588,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -6656,8 +6656,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -6724,8 +6724,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
@@ -6792,8 +6792,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -6860,8 +6860,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -6928,8 +6928,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -6996,8 +6996,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -7064,8 +7064,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -7132,8 +7132,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
@@ -7200,8 +7200,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -7268,8 +7268,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
@@ -7336,8 +7336,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -7404,8 +7404,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -7472,8 +7472,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -7540,8 +7540,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -7608,8 +7608,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -7676,8 +7676,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -7744,8 +7744,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -7948,8 +7948,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -8016,8 +8016,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -8084,8 +8084,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -8152,8 +8152,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -8220,8 +8220,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -8288,8 +8288,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -8356,8 +8356,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -8424,8 +8424,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -8492,8 +8492,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -8560,8 +8560,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -8628,8 +8628,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -8696,8 +8696,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -8764,8 +8764,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107">
@@ -8832,8 +8832,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
@@ -8900,8 +8900,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -8968,8 +8968,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
@@ -9036,8 +9036,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
@@ -9104,8 +9104,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -9172,8 +9172,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="113">
@@ -9240,8 +9240,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="114">
@@ -9308,8 +9308,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115">
@@ -9376,8 +9376,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -9444,8 +9444,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117">
@@ -9512,8 +9512,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="118">
@@ -9580,8 +9580,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="119">
@@ -9648,8 +9648,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120">
@@ -9716,8 +9716,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="121">
@@ -9784,8 +9784,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -9852,8 +9852,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="123">
@@ -9920,8 +9920,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -10124,8 +10124,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127">
@@ -10192,8 +10192,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128">
@@ -10260,8 +10260,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -10328,8 +10328,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130">
@@ -10396,8 +10396,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -10464,8 +10464,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -10532,8 +10532,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="133">
@@ -10600,8 +10600,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -10668,8 +10668,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -10736,8 +10736,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -10804,8 +10804,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="137">
@@ -10872,8 +10872,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="138">
@@ -10940,8 +10940,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="139">
@@ -11008,8 +11008,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="140">
@@ -11076,8 +11076,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="141">
@@ -11144,8 +11144,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="142">
@@ -11212,8 +11212,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="143">
@@ -11280,8 +11280,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="144">
@@ -11348,8 +11348,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -11416,8 +11416,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -11484,8 +11484,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -11552,8 +11552,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="148">
@@ -11620,8 +11620,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="149">
@@ -11688,8 +11688,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="150">
@@ -11892,8 +11892,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="153">
@@ -11960,8 +11960,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="154">
@@ -12028,8 +12028,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="155">
@@ -12096,8 +12096,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="156">
@@ -12164,8 +12164,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="157">
@@ -12232,8 +12232,8 @@
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="158">
@@ -12300,8 +12300,8 @@
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="159">
@@ -12368,8 +12368,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="160">
@@ -12436,8 +12436,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="161">
@@ -12504,8 +12504,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="162">
@@ -12572,8 +12572,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="163">
@@ -12640,8 +12640,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="164">
@@ -12708,8 +12708,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="165">
@@ -12776,8 +12776,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="166">
@@ -12844,8 +12844,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="167">
@@ -12912,8 +12912,8 @@
       <c r="U167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>33</v>
+      <c r="V167" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="168">
@@ -12980,8 +12980,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="169">
@@ -13048,8 +13048,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="170">
@@ -13116,8 +13116,8 @@
       <c r="U170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>33</v>
+      <c r="V170" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="171">
@@ -13184,8 +13184,8 @@
       <c r="U171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>33</v>
+      <c r="V171" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="172">
@@ -13252,8 +13252,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="173">
@@ -13320,8 +13320,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="174">
@@ -13388,8 +13388,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="175">
@@ -13456,8 +13456,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="176">
@@ -13524,8 +13524,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="177">
@@ -13592,8 +13592,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="178">
@@ -13660,8 +13660,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="179">
@@ -13728,8 +13728,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="180">
@@ -13796,8 +13796,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="181">
@@ -13864,8 +13864,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="182">
@@ -13932,8 +13932,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="183">
@@ -14136,8 +14136,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="186">
@@ -14204,8 +14204,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="187">
@@ -14272,8 +14272,8 @@
       <c r="U187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>33</v>
+      <c r="V187" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="188">
@@ -14340,8 +14340,8 @@
       <c r="U188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>33</v>
+      <c r="V188" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="189">
@@ -14408,8 +14408,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="190">
@@ -14476,8 +14476,8 @@
       <c r="U190" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>33</v>
+      <c r="V190" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="191">
@@ -14544,8 +14544,8 @@
       <c r="U191" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>33</v>
+      <c r="V191" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="192">
@@ -14612,8 +14612,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="193">
@@ -14680,8 +14680,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="194">
@@ -14748,8 +14748,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="195">
@@ -14816,8 +14816,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="196">
@@ -14884,8 +14884,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="197">
@@ -14952,8 +14952,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="198">
@@ -15020,8 +15020,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="199">
@@ -15088,8 +15088,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="200">
@@ -15156,8 +15156,8 @@
       <c r="U200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>33</v>
+      <c r="V200" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="201">
@@ -15224,8 +15224,8 @@
       <c r="U201" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>33</v>
+      <c r="V201" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="202">
@@ -15292,8 +15292,8 @@
       <c r="U202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>33</v>
+      <c r="V202" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="203">
@@ -15360,8 +15360,8 @@
       <c r="U203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>33</v>
+      <c r="V203" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="204">
@@ -15428,8 +15428,8 @@
       <c r="U204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>33</v>
+      <c r="V204" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="205">
@@ -15496,8 +15496,8 @@
       <c r="U205" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>33</v>
+      <c r="V205" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="206">
@@ -15564,8 +15564,8 @@
       <c r="U206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>33</v>
+      <c r="V206" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="207">
@@ -15632,8 +15632,8 @@
       <c r="U207" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>33</v>
+      <c r="V207" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="208">
@@ -15700,8 +15700,8 @@
       <c r="U208" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>33</v>
+      <c r="V208" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="209">
@@ -15768,8 +15768,8 @@
       <c r="U209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>33</v>
+      <c r="V209" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="210">
@@ -15836,8 +15836,8 @@
       <c r="U210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>33</v>
+      <c r="V210" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="211">
@@ -15904,8 +15904,8 @@
       <c r="U211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>33</v>
+      <c r="V211" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="212">
@@ -15972,8 +15972,8 @@
       <c r="U212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>33</v>
+      <c r="V212" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="213">
@@ -16040,8 +16040,8 @@
       <c r="U213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>33</v>
+      <c r="V213" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="214">
@@ -16244,8 +16244,8 @@
       <c r="U216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>33</v>
+      <c r="V216" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="217">
@@ -16312,8 +16312,8 @@
       <c r="U217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>33</v>
+      <c r="V217" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="218">
@@ -16380,8 +16380,8 @@
       <c r="U218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>33</v>
+      <c r="V218" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="219">
@@ -16448,8 +16448,8 @@
       <c r="U219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>33</v>
+      <c r="V219" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="220">
@@ -16516,8 +16516,8 @@
       <c r="U220" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>33</v>
+      <c r="V220" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="221">
@@ -16584,8 +16584,8 @@
       <c r="U221" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>33</v>
+      <c r="V221" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="222">
@@ -16652,8 +16652,8 @@
       <c r="U222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>33</v>
+      <c r="V222" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="223">
@@ -16856,8 +16856,8 @@
       <c r="U225" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>33</v>
+      <c r="V225" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="226">
@@ -16924,8 +16924,8 @@
       <c r="U226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>33</v>
+      <c r="V226" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="227">
@@ -16992,8 +16992,8 @@
       <c r="U227" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V227" s="1" t="s">
-        <v>33</v>
+      <c r="V227" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="228">
@@ -17060,8 +17060,8 @@
       <c r="U228" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>33</v>
+      <c r="V228" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="229">
@@ -17128,8 +17128,8 @@
       <c r="U229" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>33</v>
+      <c r="V229" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="230">
@@ -17196,8 +17196,8 @@
       <c r="U230" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>33</v>
+      <c r="V230" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="231">
@@ -17264,8 +17264,8 @@
       <c r="U231" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>33</v>
+      <c r="V231" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="232">
@@ -17332,8 +17332,8 @@
       <c r="U232" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>33</v>
+      <c r="V232" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="233">
@@ -17400,8 +17400,8 @@
       <c r="U233" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>33</v>
+      <c r="V233" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="234">
@@ -17468,8 +17468,8 @@
       <c r="U234" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>33</v>
+      <c r="V234" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="235">
@@ -17536,8 +17536,8 @@
       <c r="U235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>33</v>
+      <c r="V235" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="236">
@@ -17604,8 +17604,8 @@
       <c r="U236" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>33</v>
+      <c r="V236" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-GNB.xlsx
+++ b/Excel-XLSX/UN-GNB.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>st9j2R</t>
+    <t>1bt09S</t>
   </si>
   <si>
     <t>1981</t>
